--- a/conf/104_config.xlsx
+++ b/conf/104_config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HR_104\conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\python\fubon_project\JobCrawler\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCBA290-01EB-4B6F-A087-F7582A787BE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595"/>
+    <workbookView xWindow="5892" yWindow="1632" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目前應徵人數" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>0~5人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,9 +44,6 @@
     <t>北區</t>
   </si>
   <si>
-    <t>台北</t>
-  </si>
-  <si>
     <t>新北</t>
   </si>
   <si>
@@ -113,7 +111,15 @@
     <t>外島地區</t>
   </si>
   <si>
-    <t>台北市</t>
+    <t>台北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地區</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -121,15 +127,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>換算</t>
+    <t>對應</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,6 +150,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,8 +181,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,24 +467,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -476,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -484,7 +500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -492,7 +508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -508,173 +524,173 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
